--- a/eclipse-workspace/test-files/ordersWithDates.xlsx
+++ b/eclipse-workspace/test-files/ordersWithDates.xlsx
@@ -856,10 +856,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -909,7 +912,7 @@
         <v>4.5442999999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>40973</v>
+        <v>11052</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -926,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>40974</v>
+        <v>18388</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -943,7 +946,7 @@
         <v>23.34</v>
       </c>
       <c r="E5" s="1">
-        <v>40975</v>
+        <v>41263</v>
       </c>
     </row>
   </sheetData>

--- a/eclipse-workspace/test-files/ordersWithDates.xlsx
+++ b/eclipse-workspace/test-files/ordersWithDates.xlsx
@@ -856,7 +856,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
